--- a/CUAHSI_documentation/Advanced_Formatting_Template.xlsx
+++ b/CUAHSI_documentation/Advanced_Formatting_Template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbrazil\Documents\Publishing Process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whiteatl\Documents\Clim-HydroDB-2.0\CUAHSI_documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="6570" tabRatio="751" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="751"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="30" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="258">
   <si>
     <t>Field Name</t>
   </si>
@@ -312,18 +312,9 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>NULL (no offset)</t>
-  </si>
-  <si>
     <t>nc (Not Censored)</t>
   </si>
   <si>
-    <t>0 (No method specified)</t>
-  </si>
-  <si>
-    <t>-9999 (Unknown)</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
@@ -355,9 +346,6 @@
   </si>
   <si>
     <t>Color Key</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>2. Delete first column and 2nd, 3rd, 4th, and 5th rows so that only column headers and your metadata and data values remain</t>
@@ -523,32 +511,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">The Sources table lists the original sources of the data, providing information sufficient to retrieve and reconstruct the data value from the original data files if necessary. This table is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mandatory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">The Samples table gives information about physical samples analyzed in a laboratory. This table is </t>
     </r>
     <r>
@@ -653,32 +615,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">The Categories table defines the categories for categorical variables. This table is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mandatory when variables exist that have DataType specified as "Categorical."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Multiple entries for each VariableCode, with different DataValues provide the mapping from DataValue to category description.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">The DerivedFrom table contains the linkage between derived data values and the data values that they were derived from. This table is </t>
     </r>
     <r>
@@ -778,39 +714,6 @@
     <t>"hours"</t>
   </si>
   <si>
-    <t>Full text name of the variable that was measured, observed, modeled, etc. This should be from the Variable Name controlled vocabulary.</t>
-  </si>
-  <si>
-    <t>The medium in which the sample or observation was taken or made. This should be from the SampleMedium controlled vocabulary.</t>
-  </si>
-  <si>
-    <t>Text code used to identify how the data value is expressed (i.e., total phophorus concentration expressed as P). This should be  from the Speciation controlled vocabulary.</t>
-  </si>
-  <si>
-    <t>Full text of name of units of the data values associated with a variable. This should be  from the Units controlled vocabulary.</t>
-  </si>
-  <si>
-    <t>Text value indicating what type of data value is being recorded. This should be from the ValueType controlled vocabulary.</t>
-  </si>
-  <si>
-    <t>Value indicates whether the data values are from a regularly sampled time series.</t>
-  </si>
-  <si>
-    <t>Numerical value that indicates the time support (or temporal footprint) of the data values. 0 is used to indicate data values that are instantaneous. Other values indicate the time over which the data values are implicitly or explicitly averaged or aggregated.</t>
-  </si>
-  <si>
-    <t>Full text of name of units of the time support. If TimeSupport is 0, indicating an instantaneous observation, a unit needs to still be given for completeness, although it is somewhat arbitrary. This should be  from the Units controlled vocabulary.</t>
-  </si>
-  <si>
-    <t>Text value that identifies the data values as one of several types from the DataType controlled vocabulary.</t>
-  </si>
-  <si>
-    <t>General category of the data values from the GeneralCategory controlled vocabulary.</t>
-  </si>
-  <si>
-    <t>Numeric value used to encode no data values for this variable.</t>
-  </si>
-  <si>
     <t>Text description of each method.</t>
   </si>
   <si>
@@ -820,9 +723,6 @@
     <t>Text</t>
   </si>
   <si>
-    <t>Code used by organization that collects the data to identify the site.</t>
-  </si>
-  <si>
     <t>Full name of the sampling site.</t>
   </si>
   <si>
@@ -832,24 +732,15 @@
     <t>Longitude in decimal degrees. East positive, West negative.</t>
   </si>
   <si>
-    <t>Full text name of the spatial reference system of the latitude and longitude coordinates in the SpatialReferences table. This should be from the SpatialReferences controlled vocabulary.</t>
-  </si>
-  <si>
     <t>Elevation of the sampling location in meters.</t>
   </si>
   <si>
-    <t>Vertical datum of the elevation. This should be from the VerticalDatum controlled vocabulary.</t>
-  </si>
-  <si>
     <t>Local projection X coordinate.</t>
   </si>
   <si>
     <t>Local projection Y coordinate.</t>
   </si>
   <si>
-    <t>Full text name of the spatial reference system of the local coordinates in the SpatialReferences table. This field is optional and is only necessary if local coordinates are given. This should be from the SpatialReferences controlled vocabulary.</t>
-  </si>
-  <si>
     <t>Value giving the accuracy with which the positional information is specified in meters.</t>
   </si>
   <si>
@@ -862,18 +753,12 @@
     <t>Comments related to the site.</t>
   </si>
   <si>
-    <t>The type of site. This should be from the SiteType controlled vocabulary.</t>
-  </si>
-  <si>
     <t>Name of the organization that collected the data. This should be the agency or organization that collected the data, even if it came out of a database consolidated from many sources such as STORET.</t>
   </si>
   <si>
     <t>Full text description of the source of the data.</t>
   </si>
   <si>
-    <t>Link that can be pointed at the original data file and/or associated metadata stored in the digital library or URL of data source.</t>
-  </si>
-  <si>
     <t>Name of the contact person for the data source.</t>
   </si>
   <si>
@@ -895,21 +780,12 @@
     <t>US Zip Code or country postal code.</t>
   </si>
   <si>
-    <t>Text string that give the citation to be used when the data from each source are referenced.</t>
-  </si>
-  <si>
-    <t>Topic category keyword that gives the broad ISO19115</t>
-  </si>
-  <si>
     <t>Title of data from a specific data source.</t>
   </si>
   <si>
     <t>Abstract of data from a specific data source.</t>
   </si>
   <si>
-    <t>Name of metadata profile used by data source.</t>
-  </si>
-  <si>
     <t>Link to additional metadata reference material.</t>
   </si>
   <si>
@@ -937,9 +813,6 @@
     <t>Code used to identify the level of quality control to which data values have been subjected.</t>
   </si>
   <si>
-    <t>Definition of Quality Control Level.</t>
-  </si>
-  <si>
     <t>Explanation of Quality Control Level.</t>
   </si>
   <si>
@@ -949,27 +822,9 @@
     <t>Numeric value that describes the measurement accuracy of the data value. If not given, it is interpreted as unknown.</t>
   </si>
   <si>
-    <t>Local date and time at which the data value was observed. Represented in an implementation specific format.</t>
-  </si>
-  <si>
-    <t>Offset in hours from UTC time of the corresponding LocalDateTime value.</t>
-  </si>
-  <si>
-    <t>Universal UTC date and time at which the data value was observed. Represented in an implementation specific format.</t>
-  </si>
-  <si>
     <t>Distance from a datum or control point to the point at which a data value was observed. If not given the OffsetValue is inferred to be 0, or not relevant/necessary.</t>
   </si>
   <si>
-    <t>Text indication of whether the data value is censored from the CensorCode controlled vocabulary.</t>
-  </si>
-  <si>
-    <t>Integer identifier that references the Qualifiers table. If Null, the data value is inferre to not be qualified.</t>
-  </si>
-  <si>
-    <t>Integer identifier for the derived froum group of data values that the current data value is derived from. This refers to a group of derived from records in the DerivedFrom table. If Null, the data value is inferred to not be derived from another data value.</t>
-  </si>
-  <si>
     <t>Code which identifies the level of quality control that the value has been subjected to. This references the QualityControlLevels table.</t>
   </si>
   <si>
@@ -1007,15 +862,6 @@
   </si>
   <si>
     <t>Full text description of the offset type.</t>
-  </si>
-  <si>
-    <t>Text code used by organization that collects the data.</t>
-  </si>
-  <si>
-    <t>Text of the data qualifying comment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For more information about the ODM: http://dx.doi.org/10.1029/2007WR006392 </t>
   </si>
   <si>
     <t>How to use this guide:</t>
@@ -1056,9 +902,6 @@
     <t>MethodCode</t>
   </si>
   <si>
-    <t>Code used by the organization that collects the data to identify the method used for measurement.</t>
-  </si>
-  <si>
     <t>SourceCode</t>
   </si>
   <si>
@@ -1071,9 +914,6 @@
     <t>Mandatory if table is used; Primary Key</t>
   </si>
   <si>
-    <t>4. Upload each CSV file using CUAHSI's Cloud HydroServer</t>
-  </si>
-  <si>
     <t>OffsetTypeCode</t>
   </si>
   <si>
@@ -1090,13 +930,200 @@
   </si>
   <si>
     <t>Code used by the organization that collects the data to identify the sampe, which is defined in the Samples table. This is required only if the data value resulted from a physical sample processed in a lab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For more information about the Observations Data Model: http://dx.doi.org/10.1029/2007WR006392 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Sources table lists the original sources of the data, providing information on who collected the data. This table is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mandatory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Make an EML metadata file and upload the data package to EDI.  If loading data into CUAHSI, upload each CSV file using CUAHSI's Cloud HydroServer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Categories table defines the categories for categorical variables. This table is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mandatory when variables exist that have DataType specified as "Categorical."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Multiple entries for each VariableCode, with different DataValues provide the mapping from numerical DataValue to category description.</t>
+    </r>
+  </si>
+  <si>
+    <t>User or organization-defined code to describe the variable. If for example, you are measuring streamflow, you may name this SF.</t>
+  </si>
+  <si>
+    <t>Full text name of the variable that was measured, observed, modeled, etc. Example: Streamflow. Choose a Term from the Variable Name controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=VariableNameCV</t>
+  </si>
+  <si>
+    <t>Text code used to identify how the data value is expressed (i.e., total phophorus concentration expressed as P). Choose a term from the Speciation controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=SpeciationCV</t>
+  </si>
+  <si>
+    <t>The name of units of the data values associated with a variable. Example: degree. Choose a UnitsName from the Units controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=Units</t>
+  </si>
+  <si>
+    <t>The medium in which the sample or observation was taken or made. Example: Surface water. Choose a Term from the SampleMedium controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=SampleMediumCV</t>
+  </si>
+  <si>
+    <t>Indicates how the data value was generated. Example: Field Observation. Choose a Term from the ValueType controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=ValueTypeCV</t>
+  </si>
+  <si>
+    <t>Value indicates whether the data values are from a regularly sampled time series. Choose TRUE or FALSE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerical value that indicates the time support (or temporal footprint) of the data values. 0 is used to indicate data values that are instantaneous. Other values indicate the time over which the data values are implicitly or explicitly averaged or aggregated. The Timesupport goes along with TimeUnitsName if IsRegular = TRUE. </t>
+  </si>
+  <si>
+    <t>The name of units of the time support. If TimeSupport is 0, indicating an instantaneous observation, a unit needs to still be given for completeness, although it is arbitrary. Choose a UnitsName from the Units controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=Units</t>
+  </si>
+  <si>
+    <t>Indicates how the value applies over a time interval. Example: Average. Choose a Term from the DataType controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=DataTypeCV</t>
+  </si>
+  <si>
+    <t>General category of data. Example: Hydrology. Choose a Term from the GeneralCategory controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=GeneralCategoryCV</t>
+  </si>
+  <si>
+    <t>Numeric value used to encode when a data value is not available for this variable. When formatting the Data Values table, use this number to indicate NoData.</t>
+  </si>
+  <si>
+    <t>User or organization-defined code that collects the data to identify the method used for measurement.</t>
+  </si>
+  <si>
+    <t>User or organization-defined code that collects the data to identify the site.</t>
+  </si>
+  <si>
+    <t>The spatial reference system of the latitude and longitude coordinates. Choose an SRSName where IsGeographic=True from the SpatialReferences controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=SpatialReferences</t>
+  </si>
+  <si>
+    <t>Controlled Vocabulary, must be a geographic coordinate system</t>
+  </si>
+  <si>
+    <t>The type of site. Choose a Term  from the SiteType controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=SiteTypeCV</t>
+  </si>
+  <si>
+    <t>Optional; Controlled Vocabulary</t>
+  </si>
+  <si>
+    <t>Vertical datum of the elevation. Choose a Term from the VerticalDatum controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=VerticalDatumCV</t>
+  </si>
+  <si>
+    <t>Full text name of the spatial reference system of the local coordinates. This field is optional and is only necessary if local coordinates are given. Choose an SRSName from the SpatialReferences controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=SpatialReferences</t>
+  </si>
+  <si>
+    <t>Text string that gives the citation to be used when the data from each source are referenced.</t>
+  </si>
+  <si>
+    <t>Topic category keyword. Choose a Term from the TopicCategory controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=TopicCategoryCV</t>
+  </si>
+  <si>
+    <t>Name of metadata profile used by data source. Example: ISO 19115</t>
+  </si>
+  <si>
+    <t>Link to the original data file of the data source.</t>
+  </si>
+  <si>
+    <t>Mandatory; Unique; Cannot contain tab, line feed, or carriage return characters</t>
+  </si>
+  <si>
+    <t>Definition of Quality Control Level. Examples: Raw Data, Quality Controlled Data. This is not to be confused with data qualifiers.</t>
+  </si>
+  <si>
+    <t>Local date and time at which the data value was observed. We recommend using ISO 8601 representations, e.g., 2021-07-28T12:28</t>
+  </si>
+  <si>
+    <t>Offset in hours from UTC time of the corresponding LocalDateTime value. Example: -5</t>
+  </si>
+  <si>
+    <t>UTC date and time at which the data value was observed. We recommend using ISO 8601 representations, e.g., 2021-07-28T19:28</t>
+  </si>
+  <si>
+    <t>Code used by organization that collects the data to identify the site. This references the Sites table.</t>
+  </si>
+  <si>
+    <t>Code used by the organization that collects the data to identify the variable. This references the Variables table.</t>
+  </si>
+  <si>
+    <t>Mandatory; max precision is one millisecond</t>
+  </si>
+  <si>
+    <t>Code used to identify the offset type.</t>
+  </si>
+  <si>
+    <t>Text indication of whether the data value is censored. Choose a Term from the CensorCode controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=CensorCodeCV</t>
+  </si>
+  <si>
+    <t>A flag indicating a peculiarity with a particular data value.  References the Qualifiers table. If not given, the data value is inferre to not be qualified.</t>
+  </si>
+  <si>
+    <t>Text code used by organization that collects the data to indicate a given data qualifier, e.g., lowbat</t>
+  </si>
+  <si>
+    <t>Text of the data qualifying comment, e.g., low battery voltage on sensor</t>
+  </si>
+  <si>
+    <t>Integer identifier for the derived from group of data values that the current data value is derived from. This refers to one or more records in the DerivedFrom table. If not provided, the data value is inferred to not be derived from another data value.</t>
+  </si>
+  <si>
+    <t>Mandatory if DerivedFrom or Groups table is used</t>
+  </si>
+  <si>
+    <t>Mandatory if OffsetValue is used; Foreign Key</t>
+  </si>
+  <si>
+    <t>Unique identifier for a data value, used for grouping and provenance purposes</t>
+  </si>
+  <si>
+    <t>WARNING: This template as downloaded from CUAHSI had mistakes related to groups, derived from values, offsets, and samples.</t>
+  </si>
+  <si>
+    <t>We recommend only using this template to augment the standard template with Qualifiers and/or Categories.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1266,6 +1293,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1752,7 +1787,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1794,20 +1828,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1827,6 +1849,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1961,23 +1996,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2013,23 +2031,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2208,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,58 +2221,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
+      <c r="B3" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="32"/>
+      <c r="B5" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>242</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="44" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2289,18 +2300,18 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="B16" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
@@ -2318,7 +2329,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2331,20 +2342,20 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
-        <v>234</v>
+      <c r="B19" s="21" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="33"/>
+      <c r="B21" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="32"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -2355,57 +2366,57 @@
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
+      <c r="B22" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="B23" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
       <c r="K23" s="7"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
+      <c r="B26" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="28"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2419,300 +2430,293 @@
     <mergeCell ref="B21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>244</v>
+        <v>200</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
-        <v>164</v>
-      </c>
       <c r="H2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="E3" s="13" t="s">
+        <v>246</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
+      <c r="G3" s="13" t="s">
+        <v>246</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>254</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
         <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
       </c>
       <c r="N3" t="s">
         <v>22</v>
       </c>
       <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
         <v>24</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="300" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="300" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="L4" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="P4" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q4" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
       <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>216</v>
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>183</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" t="s">
-        <v>109</v>
+        <v>183</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="H5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" t="s">
         <v>92</v>
       </c>
-      <c r="J5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" t="s">
-        <v>94</v>
-      </c>
-      <c r="N5" t="s">
-        <v>109</v>
+      <c r="N5" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="O5" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>95</v>
+        <v>105</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2725,9 +2729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2741,13 +2743,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2769,14 +2771,14 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>131</v>
+      <c r="B3" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -2784,28 +2786,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2816,9 +2811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2850,25 +2843,25 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2876,10 +2869,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2891,9 +2884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2929,7 +2920,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>14</v>
@@ -2940,10 +2931,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2951,11 +2942,9 @@
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>91</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C5" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2966,9 +2955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3003,21 +2990,21 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3025,10 +3012,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3038,72 +3025,86 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>164</v>
+      <c r="B2" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>131</v>
+      <c r="B3" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>91</v>
+        <v>105</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3115,9 +3116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3156,29 +3155,29 @@
         <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
+      <c r="B5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3191,7 +3190,7 @@
   <dimension ref="A2:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" activeCellId="1" sqref="A12:P15 A20:P29"/>
+      <selection activeCell="B12" sqref="B12:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3200,574 +3199,572 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="39"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="41"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="37" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="37" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="37" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="37" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="37" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="37" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B24:P25"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="B12:P13"/>
-    <mergeCell ref="B14:P15"/>
-    <mergeCell ref="B16:P17"/>
-    <mergeCell ref="B18:P19"/>
-    <mergeCell ref="B22:P23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B26:P27"/>
     <mergeCell ref="B28:P29"/>
@@ -3784,11 +3781,13 @@
     <mergeCell ref="B6:P7"/>
     <mergeCell ref="B8:P9"/>
     <mergeCell ref="B10:P11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B24:P25"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="B12:P13"/>
+    <mergeCell ref="B14:P15"/>
+    <mergeCell ref="B16:P17"/>
+    <mergeCell ref="B18:P19"/>
+    <mergeCell ref="B22:P23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3798,9 +3797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3830,7 +3827,7 @@
         <v>59</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>60</v>
@@ -3845,7 +3842,7 @@
         <v>62</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>5</v>
@@ -3905,20 +3902,20 @@
       <c r="B3" t="s">
         <v>88</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
+      <c r="C3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -3926,58 +3923,58 @@
       <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
+      <c r="J3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="M3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>153</v>
-      </c>
       <c r="E4" s="16" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -3985,37 +3982,37 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M5">
         <v>-9999</v>
@@ -4030,9 +4027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4047,7 +4042,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>45</v>
@@ -4089,13 +4084,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4103,10 +4098,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
         <v>91</v>
@@ -4122,9 +4117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4162,7 +4155,7 @@
         <v>70</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>72</v>
@@ -4177,7 +4170,7 @@
         <v>75</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>76</v>
@@ -4192,7 +4185,7 @@
         <v>79</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -4212,7 +4205,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -4227,7 +4220,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="L2" t="s">
         <v>8</v>
@@ -4242,7 +4235,7 @@
         <v>11</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -4261,14 +4254,14 @@
       <c r="E3" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>22</v>
+      <c r="F3" s="13" t="s">
+        <v>230</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -4276,8 +4269,8 @@
       <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>24</v>
+      <c r="K3" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
@@ -4291,55 +4284,58 @@
       <c r="O3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="13" customFormat="1" ht="210" x14ac:dyDescent="0.3">
+      <c r="P3" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="13" customFormat="1" ht="240" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -4347,46 +4343,28 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" t="s">
-        <v>91</v>
-      </c>
-      <c r="N5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O5" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4396,9 +4374,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4421,7 +4399,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>64</v>
@@ -4568,8 +4546,8 @@
       <c r="M3" t="s">
         <v>9</v>
       </c>
-      <c r="N3" t="s">
-        <v>22</v>
+      <c r="N3" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -4584,60 +4562,60 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="13" customFormat="1" ht="150" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="13" customFormat="1" ht="135" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -4645,57 +4623,49 @@
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N6" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" t="s">
-        <v>96</v>
-      </c>
-      <c r="P6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>96</v>
-      </c>
-      <c r="R6" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="N5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4751,13 +4721,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -4765,13 +4735,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4779,13 +4749,13 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4797,9 +4767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4854,16 +4822,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -4874,19 +4842,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4894,16 +4862,16 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
         <v>91</v>
@@ -4918,9 +4886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4962,7 +4928,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -4976,13 +4942,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4990,13 +4956,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/CUAHSI_documentation/Advanced_Formatting_Template.xlsx
+++ b/CUAHSI_documentation/Advanced_Formatting_Template.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="261">
   <si>
     <t>Field Name</t>
   </si>
@@ -789,9 +789,6 @@
     <t>Link to additional metadata reference material.</t>
   </si>
   <si>
-    <t>Controlled vocabulary specificying the sample type. This should be from the SampleType controlled vocabulary.</t>
-  </si>
-  <si>
     <t>Code or label used to identify and track lab sample or sample container (e.g. bottoe) during lab analysis.</t>
   </si>
   <si>
@@ -856,9 +853,6 @@
   </si>
   <si>
     <t>OffsetUnitsName</t>
-  </si>
-  <si>
-    <t>Full name of units of the Offset Value. This should be from the Units controlled vocabulary.</t>
   </si>
   <si>
     <t>Full text description of the offset type.</t>
@@ -1118,12 +1112,27 @@
   <si>
     <t>We recommend only using this template to augment the standard template with Qualifiers and/or Categories.</t>
   </si>
+  <si>
+    <t>Controlled vocabulary specificying the sample type. This should be from the SampleType controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=SampleTypeCV</t>
+  </si>
+  <si>
+    <t>Mandatory if table is used; Controlled Vocabulary</t>
+  </si>
+  <si>
+    <t>Mandatory; Foreign Key; Controlled Vocabulary</t>
+  </si>
+  <si>
+    <t>Full name of units of the Offset Value. This should be from the Units controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=Units</t>
+  </si>
+  <si>
+    <t>Mandatory if table is used; Foreign Key; Controlled Vocabulary</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1301,6 +1310,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1710,7 +1727,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1753,8 +1770,9 @@
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1795,6 +1813,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1828,8 +1847,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1849,21 +1880,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1897,6 +1919,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2221,34 +2244,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="31"/>
+      <c r="B5" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="32"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -2267,17 +2290,17 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="44" t="s">
-        <v>256</v>
+      <c r="B11" s="22" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
-        <v>257</v>
+      <c r="B12" s="22" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -2300,18 +2323,18 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
@@ -2343,19 +2366,19 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -2366,57 +2389,57 @@
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+      <c r="B23" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="7"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
+      <c r="B26" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="27"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2492,7 +2515,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>25</v>
@@ -2501,13 +2524,13 @@
         <v>48</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>27</v>
@@ -2577,7 +2600,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2586,13 +2609,13 @@
         <v>14</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -2604,10 +2627,10 @@
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
+        <v>252</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>258</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -2633,55 +2656,55 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="R4" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -2692,13 +2715,13 @@
         <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5" t="s">
         <v>105</v>
@@ -2720,8 +2743,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2786,13 +2812,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>184</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2858,10 +2884,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>186</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2931,10 +2957,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>188</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3001,10 +3027,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>190</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3042,10 +3068,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>47</v>
@@ -3065,32 +3091,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>127</v>
+      <c r="C3" s="46" t="s">
+        <v>260</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3108,6 +3134,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3163,10 +3192,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3189,9 +3218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:P13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3199,572 +3226,574 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="39"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B24:P25"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="B12:P13"/>
+    <mergeCell ref="B14:P15"/>
+    <mergeCell ref="B16:P17"/>
+    <mergeCell ref="B18:P19"/>
+    <mergeCell ref="B22:P23"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B26:P27"/>
     <mergeCell ref="B28:P29"/>
@@ -3781,13 +3810,11 @@
     <mergeCell ref="B6:P7"/>
     <mergeCell ref="B8:P9"/>
     <mergeCell ref="B10:P11"/>
-    <mergeCell ref="B24:P25"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="B12:P13"/>
-    <mergeCell ref="B14:P15"/>
-    <mergeCell ref="B16:P17"/>
-    <mergeCell ref="B18:P19"/>
-    <mergeCell ref="B22:P23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3902,19 +3929,19 @@
       <c r="B3" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="45" t="s">
         <v>97</v>
       </c>
       <c r="H3" t="s">
@@ -3923,13 +3950,13 @@
       <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="45" t="s">
         <v>97</v>
       </c>
       <c r="M3" t="s">
@@ -3941,40 +3968,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="H4" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="I4" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="J4" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="M4" s="16" t="s">
         <v>224</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -4019,6 +4046,16 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId4"/>
+    <hyperlink ref="K3" r:id="rId5"/>
+    <hyperlink ref="J3" r:id="rId6"/>
+    <hyperlink ref="L3" r:id="rId7"/>
+    <hyperlink ref="G3" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4042,7 +4079,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>45</v>
@@ -4084,7 +4121,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>145</v>
@@ -4254,14 +4291,14 @@
       <c r="E3" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>230</v>
+      <c r="F3" s="45" t="s">
+        <v>228</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>232</v>
+      <c r="H3" s="45" t="s">
+        <v>230</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -4269,8 +4306,8 @@
       <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>232</v>
+      <c r="K3" s="45" t="s">
+        <v>230</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
@@ -4284,7 +4321,7 @@
       <c r="O3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="45" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4293,7 +4330,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>148</v>
@@ -4305,13 +4342,13 @@
         <v>150</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>151</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>152</v>
@@ -4320,7 +4357,7 @@
         <v>153</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>154</v>
@@ -4335,7 +4372,7 @@
         <v>157</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -4368,6 +4405,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="P3" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4399,7 +4442,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>64</v>
@@ -4546,7 +4589,7 @@
       <c r="M3" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="45" t="s">
         <v>97</v>
       </c>
       <c r="O3" t="s">
@@ -4567,7 +4610,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>158</v>
@@ -4576,7 +4619,7 @@
         <v>159</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>160</v>
@@ -4600,10 +4643,10 @@
         <v>166</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>167</v>
@@ -4612,7 +4655,7 @@
         <v>168</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="R4" s="14" t="s">
         <v>169</v>
@@ -4669,8 +4712,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4720,28 +4766,28 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>127</v>
+      <c r="B3" s="45" t="s">
+        <v>257</v>
       </c>
       <c r="C3" t="s">
         <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>171</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4759,6 +4805,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="Mandatory if table is used; Foreign Key"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4828,7 +4877,7 @@
         <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
         <v>126</v>
@@ -4842,19 +4891,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>175</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4928,7 +4977,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -4942,13 +4991,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" t="s">
         <v>177</v>
-      </c>
-      <c r="C4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4956,13 +5005,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
